--- a/big-data/big-data-capstone/project/data/beer_n_Tiger Radler Lemon.xlsx
+++ b/big-data/big-data-capstone/project/data/beer_n_Tiger Radler Lemon.xlsx
@@ -496,7 +496,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>solidfunk(17,556)
+          <t>solidfunk(17,563)
 🇺🇸Washington D.C., United States
 1.4December 9, 2019
 Light fake lemon like you taste in a Sprite or something. Hazy golden pour with fizzy head. Light sweet end. Can from Thailand somewhere.
@@ -706,7 +706,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>omhper(35,539)
+          <t>omhper(35,612)
 🇸🇪Tyresö, Sweden
 1.2March 10, 2018
 Canned, from random 7-Eleven, Singapore  Hazy yellow, coarse head. Aroma of lemonade and jam. Sweet with light body and clean mouthfeel. Sticky and artificlal, syrupy finish wioth…
@@ -776,7 +776,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>explosivedog(9,851)
+          <t>explosivedog(9,871)
 🇺🇸New York, United States
 2.7November 26, 2017
 500ml can. Pours cloudy white yellow. Lemon, a real lemon curd type thing. Not much beer left. Looks, tastes and smells like quite a nice lager shandy. Fine by me.
@@ -845,7 +845,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyobon(2,456)
+          <t>Pyobon(2,457)
 🇦🇺Sydney, Australia
 2.7August 4, 2017
 (Can) Pours hazy amber with thin white head. Refreshing pleasant lemon aroma. Light body and fizzy. Taste is sweet and tangy and refreshing. Well, it's not a beer and judging it as one…
@@ -983,7 +983,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>saxo(26,159)
+          <t>saxo(26,163)
 🇩🇰Over Hornbæk, Randers, Denmark
 2.1July 6, 2017
 Can from 7 eleven. Medium head with medium duration. Color is hazy yellow. Aroma and taste are artificial lemon, malt and was actually quite nice to drink in the hot Singapore climate.
@@ -1191,7 +1191,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CacheManyHose(1,271)
+          <t>CacheManyHose(1,274)
 🇭🇰Hong Kong
 2.9July 17, 2016
 Tried at a tasting in Sai Kung. Not especially noteworthy but nice and refreshing if you want a Radler. Very drinkable at 2%. Carbonation is not too aggressive, which I like.
@@ -1399,7 +1399,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Erzengel(13,937)
+          <t>Erzengel(13,941)
 🇩🇪Saarland &amp; Düsseldorf, Germany
 1.3January 29, 2016
 Sticky lemonade beginning. Fresh sugary without too much beer. Sweetish lemonade aftertaste.…
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>deanso(15,165)
+          <t>deanso(15,171)
 🇬🇧Doncaster, England
 1.9January 15, 2016
 33cl can.
@@ -1680,7 +1680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nilsas(7,961)
+          <t>nilsas(7,972)
 🇳🇴Bryne, Norway
 2.0June 2, 2015
 Lukt: Dufter som sitron brus.…
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Icedwarf(3,756)
+          <t>Icedwarf(3,760)
 🇳🇱Etten-Leur, Netherlands
 2.5November 1, 2014
 Per ongeluk gekocht mdat de opdruk sterk lijkt op de gewone Tiger, blik 33cc.…
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>jmgreenuk(17,115)
+          <t>jmgreenuk(17,138)
 🇲🇾Kuala Lumpur, Malaysia
 1.9June 1, 2014
 Bottle at the German Beer Bar, Kuala Lumpur. Poured a hazy straw colour with a long lasting frothy white head. The aroma is yeast lemon citrus. The flavour is medium sweet with an acidi…
